--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">New benchmark</t>
+    <t xml:space="preserve">Baseline for target</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Proportions are over 100 per cent but displayed as 100 per cent for the following: Indigenous children in WA (105 per cent); SA (112 per cent); and ACT (124 per cent). Non-Indigenous children in Vic. (103 per cent); QLD (108 per cent); WA (101 per cent); SA (103 per cent); Tas. (102 per cent); ACT (109 per cent); and NT (106 per cent).</t>
   </si>
   <si>
-    <t xml:space="preserve">A revised method was developed to address numerator and denominator misalignment for age and location, removing children already in school from the denominator, and adjusting for Indigenous status not stated. It is considered a significant improvement, but there are some further potential sources of difference between the early childhood education numerators and the population denominators that may impact on the accuracy of the estimates.</t>
+    <t xml:space="preserve">A revised method was developed to address numerator and denominator misalignment for age and location, removing children already in school from the denominator, and adjusting for Indigenous status not stated. It is considered a significant improvement, but there are some further potential sources of difference between the early childhood education numerators and the population denominators that may impact on the accuracy of the estimates and further refinement may be required.</t>
   </si>
   <si>
     <t xml:space="preserve">Source: ABS unpublished, Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015</t>
@@ -122,6 +122,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,16 +147,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -163,11 +158,19 @@
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,15 +224,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,15 +327,15 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,15 +466,15 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,9 +536,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="101.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -543,7 +550,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
+++ b/dashboard_loader/indigenous_ece_uploader/indigenous_ece.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Enrolment in early childhood education in the year before full time school, by Indigenous status and State/Territory, 2015 (per cent)</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Short title</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase the number of Indigenous children enrolled in early childhood education</t>
+    <t xml:space="preserve">Increase Indigenous enrolment in early childhood education</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -107,7 +107,10 @@
     <t xml:space="preserve">A revised method was developed to address numerator and denominator misalignment for age and location, removing children already in school from the denominator, and adjusting for Indigenous status not stated. It is considered a significant improvement, but there are some further potential sources of difference between the early childhood education numerators and the population denominators that may impact on the accuracy of the estimates and further refinement may be required.</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: ABS unpublished, Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS unpublished, Preschool Education, Australia 2015; Australian Demographic Statistics, June 2015; Births, Australia, 2015; Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026; Schools, Australia 2015</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,6 +141,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -173,15 +257,57 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -189,8 +315,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,13 +355,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,41 +425,57 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -282,7 +487,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -298,7 +503,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -327,15 +532,15 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,15 +671,15 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -542,9 +747,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
